--- a/Tables/Table S3.xlsx
+++ b/Tables/Table S3.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="51">
   <si>
-    <t>Table S2: Summary of methylation difference between ecotypes on global level and chromosomal level</t>
+    <t>Table S3: Summary of methylation difference between ecotypes on global level and chromosomal level</t>
   </si>
   <si>
     <t>Table showing general statistical information using ES12 as baseline (methylation difference, SD, SE, and CI) in chromosomal level and global level.  See below for overview of sheets.</t>
